--- a/elite-data/manifest-templates/EL_template_AssayWholeGenomeSequencingTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_AssayWholeGenomeSequencingTemplate.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="106">
   <si>
     <t>Filename</t>
   </si>
@@ -390,7 +390,7 @@
     <t>MetaboLights</t>
   </si>
   <si>
-    <t>sac-seq</t>
+    <t>Qiagen Rneasy Extraction Kit</t>
   </si>
   <si>
     <t>Metabolomics Workbench</t>
@@ -399,7 +399,7 @@
     <t>PCRfree</t>
   </si>
   <si>
-    <t>Smart-seq1</t>
+    <t>sac-seq</t>
   </si>
   <si>
     <t>MGnify</t>
@@ -408,7 +408,7 @@
     <t>polyAselection</t>
   </si>
   <si>
-    <t>Smart-seq2</t>
+    <t>Smart-seq1</t>
   </si>
   <si>
     <t>NCBI Gene</t>
@@ -417,43 +417,49 @@
     <t>proximity ligation</t>
   </si>
   <si>
+    <t>Smart-seq2</t>
+  </si>
+  <si>
+    <t>rRNAdepletion</t>
+  </si>
+  <si>
     <t>Smart-seq4</t>
+  </si>
+  <si>
+    <t>snIsoSeq</t>
+  </si>
+  <si>
+    <t>SMRTbell</t>
+  </si>
+  <si>
+    <t>SPLITseq</t>
+  </si>
+  <si>
+    <t>TruSeq</t>
+  </si>
+  <si>
+    <t>STARRSeq</t>
+  </si>
+  <si>
+    <t>Ultralow Methyl-Seq</t>
   </si>
   <si>
     <t>PRIDE</t>
   </si>
   <si>
-    <t>rRNAdepletion</t>
-  </si>
-  <si>
-    <t>SMRTbell</t>
+    <t>SureCell</t>
   </si>
   <si>
     <t>SRA</t>
   </si>
   <si>
-    <t>snIsoSeq</t>
+    <t>totalRNA</t>
   </si>
   <si>
-    <t>TruSeq</t>
+    <t>Synapse</t>
   </si>
   <si>
     <t>UniProt</t>
-  </si>
-  <si>
-    <t>SPLITseq</t>
-  </si>
-  <si>
-    <t>Ultralow Methyl-Seq</t>
-  </si>
-  <si>
-    <t>STARRSeq</t>
-  </si>
-  <si>
-    <t>SureCell</t>
-  </si>
-  <si>
-    <t>totalRNA</t>
   </si>
 </sst>
 </file>
@@ -27845,6 +27851,12 @@
     </row>
   </sheetData>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="P2:P1000">
+      <formula1>Sheet2!$P$2:$P$23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="H2:H1000">
+      <formula1>Sheet2!$H$2:$H$27</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="S2:S1000">
       <formula1>Sheet2!$S$2:$S$9</formula1>
     </dataValidation>
@@ -27859,12 +27871,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="V2:V1000">
       <formula1>Sheet2!$V$2:$V$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="H2:H1000">
-      <formula1>Sheet2!$H$2:$H$21</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="P2:P1000">
-      <formula1>Sheet2!$P$2:$P$22</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="J2:J1000">
       <formula1>Sheet2!$J$2:$J$9</formula1>
@@ -28250,57 +28256,82 @@
     </row>
     <row r="19">
       <c r="H19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P19" s="7" t="s">
+    </row>
+    <row r="20">
+      <c r="H20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="H20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="O20" s="7" t="s">
+    </row>
+    <row r="21">
+      <c r="H21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21">
-      <c r="H21" s="7" t="s">
+    <row r="22">
+      <c r="H22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P21" s="7" t="s">
+    </row>
+    <row r="23">
+      <c r="H23" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="O22" s="7" t="s">
+      <c r="O23" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23">
-      <c r="O23" s="7" t="s">
+    <row r="24">
+      <c r="H24" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24">
       <c r="O24" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="25">
+      <c r="H25" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="O25" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="H26" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="H27" s="7" t="s">
         <v>65</v>
       </c>
     </row>

--- a/elite-data/manifest-templates/EL_template_AssayWholeGenomeSequencingTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_AssayWholeGenomeSequencingTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -566,6 +566,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
